--- a/example.xlsx
+++ b/example.xlsx
@@ -425,7 +425,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Здравствуй мир</t>
+          <t>Модуль</t>
         </is>
       </c>
     </row>
